--- a/Program/Other/URS會議審查紀錄/DbLayouts/L2-業務作業/ClMovables.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L2-業務作業/ClMovables.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9070017A-6CFA-4B0C-8ADF-B4B0FC8DD566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -546,33 +556,6 @@
 2:專用</t>
   </si>
   <si>
-    <t>01.---
-02.平板式
-03.伸縮平板式
-04.伸縮鋼架式
-05.低床平板式
-06.柵式
-07.框式
-08.高壓罐槽體式
-09.密封式
-10.常壓罐槽式
-11.廂式
-12.傾卸平板式
-13.傾卸框式
-14.傾卸密封式
-15.槽體式
-16.廂式
-17.篷式
-18.鋼架式
-19.篷式
-20.雙廂式
-21.雙層式
-22.雙層框式
-23.攪拌式
-24.罐式
-25.罐槽體式</t>
-  </si>
-  <si>
     <t>共用代碼檔
 206:臺北區監理所基隆監理站
 235:臺北區監理所板橋監理站
@@ -686,11 +669,39 @@
     <t>ClMovables</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>01:---
+02:平板式
+03:伸縮平板式
+04:伸縮鋼架式
+05:低床平板式
+06:柵式
+07:框式
+08:高壓罐槽體式
+09:密封式
+10:常壓罐槽式
+11:廂式
+12:傾卸平板式
+13:傾卸框式
+14:傾卸密封式
+15:槽體式
+16:廂式
+17:篷式
+18:鋼架式
+19:篷式
+20:雙廂式
+21:雙層式
+22:雙層框式
+23:攪拌式
+24:罐式
+25:罐槽體式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -920,7 +931,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1011,6 +1022,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1046,6 +1074,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1221,11 +1266,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:E12"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1245,10 +1290,10 @@
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
@@ -1327,7 +1372,7 @@
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="14"/>
@@ -1426,10 +1471,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>3</v>
@@ -1566,7 +1611,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>47</v>
@@ -1586,7 +1631,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>48</v>
@@ -1725,7 +1770,7 @@
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
@@ -1747,7 +1792,7 @@
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1769,7 +1814,7 @@
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1967,7 +2012,7 @@
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
@@ -1989,7 +2034,7 @@
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -2046,7 +2091,7 @@
         <v>64</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E41" s="18">
         <v>20</v>
@@ -2066,7 +2111,7 @@
         <v>65</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E42" s="18">
         <v>20</v>
@@ -2247,7 +2292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -2300,34 +2345,34 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
